--- a/caviar_TSX.xlsx
+++ b/caviar_TSX.xlsx
@@ -366,2262 +366,2262 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-0.007935001929528436</v>
+        <v>-0.008361005455210183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-0.007167279785427562</v>
+        <v>-0.007549971145349814</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-0.006661954637350922</v>
+        <v>-0.007119870468626044</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-0.005824364920156805</v>
+        <v>-0.006208725626448212</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-0.008540068641122049</v>
+        <v>-0.008940665761286847</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-0.008631961042720845</v>
+        <v>-0.009113866354119673</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-0.008207278183865048</v>
+        <v>-0.008548195296633514</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-0.008043281039714047</v>
+        <v>-0.008336577606540196</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-0.007904993488430347</v>
+        <v>-0.008158488761759968</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-0.007677921930541741</v>
+        <v>-0.007830064747827596</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-0.007912385562243492</v>
+        <v>-0.008118610710230441</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-0.008007811924002404</v>
+        <v>-0.008220838330344647</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-0.0083948528852308</v>
+        <v>-0.008620040147907595</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-0.008591441486175378</v>
+        <v>-0.008744194783275899</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-0.00877136219491613</v>
+        <v>-0.008976443212836907</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-0.008749521077431087</v>
+        <v>-0.008962094831792007</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-0.00871827102561747</v>
+        <v>-0.008801890037421763</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-0.008778726960931359</v>
+        <v>-0.008808546174726099</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-0.008339089883602904</v>
+        <v>-0.008010190149623524</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-0.008466120164097752</v>
+        <v>-0.008353323634122717</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>-0.008327496425058015</v>
+        <v>-0.007857933349279634</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>-0.008740688113728481</v>
+        <v>-0.008578653934797545</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>-0.008062087241491572</v>
+        <v>-0.00810452299123364</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>-0.009445210456699507</v>
+        <v>-0.009124614405873643</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>-0.01079089296699086</v>
+        <v>-0.01062444041895659</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>-0.009682482223454988</v>
+        <v>-0.009757736817449422</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>-0.009162204675191079</v>
+        <v>-0.009603303485998756</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>-0.01187233518432376</v>
+        <v>-0.01258020502023377</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>-0.01378334054766578</v>
+        <v>-0.01433730054036954</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>-0.0122566660749917</v>
+        <v>-0.01246181226203085</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>-0.01097940761313382</v>
+        <v>-0.01105757217503513</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>-0.01279156971228702</v>
+        <v>-0.01281849633423363</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>-0.01259593975423132</v>
+        <v>-0.01274122224074765</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>-0.01449756342184298</v>
+        <v>-0.01629495480470344</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>-0.0138519719896568</v>
+        <v>-0.01531486261273308</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>-0.01477171631257204</v>
+        <v>-0.01645121629876999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>-0.01346922438564304</v>
+        <v>-0.01471001309475746</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>-0.01218620828777467</v>
+        <v>-0.01299721400322022</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>-0.01200105561323532</v>
+        <v>-0.01252578570657726</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>-0.01105810034154214</v>
+        <v>-0.01177157594824842</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>-0.0108487155145188</v>
+        <v>-0.01158246018623637</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>-0.01096664314817871</v>
+        <v>-0.01244067689554857</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>-0.01129048373414445</v>
+        <v>-0.01218367789495813</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>-0.01138999603065322</v>
+        <v>-0.01217712899238477</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>-0.01322282569392184</v>
+        <v>-0.01386320113428859</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>-0.01363329483915584</v>
+        <v>-0.01427255255730025</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>-0.01282995264535647</v>
+        <v>-0.0135577381340989</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>-0.01396213094425358</v>
+        <v>-0.0146348924703735</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>-0.01285654508686378</v>
+        <v>-0.01343259874328937</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>-0.01344916639594785</v>
+        <v>-0.01397130318985801</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>-0.013186602584763</v>
+        <v>-0.01371863064238355</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>-0.01259944475285418</v>
+        <v>-0.01315046686845302</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>-0.01115744189923693</v>
+        <v>-0.01178441604988219</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>-0.01079834740560599</v>
+        <v>-0.01121301199774143</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>-0.009450246027450043</v>
+        <v>-0.0100069377324653</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>-0.008707375410349327</v>
+        <v>-0.009503363778831105</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>-0.008376389868194908</v>
+        <v>-0.008729015034217339</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>-0.009077616959858348</v>
+        <v>-0.009398934884616211</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>-0.008126217940919521</v>
+        <v>-0.008486582185077541</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>-0.008699776983316239</v>
+        <v>-0.008866130386995085</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>-0.01144146780610401</v>
+        <v>-0.01143082817093983</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>-0.01236702708824245</v>
+        <v>-0.01235179763658208</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>-0.0110657493764725</v>
+        <v>-0.01095825014737171</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>-0.01101980872163338</v>
+        <v>-0.0109234858352317</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>-0.01034291837989356</v>
+        <v>-0.01041093409786413</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>-0.01141747981983041</v>
+        <v>-0.01148021109821565</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>-0.01190415088653495</v>
+        <v>-0.01169953903771695</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>-0.01138026784888816</v>
+        <v>-0.0111031467772452</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>-0.01081087520763368</v>
+        <v>-0.01052735445059133</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>-0.01166578579765171</v>
+        <v>-0.01142976326367018</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>-0.01122824240108246</v>
+        <v>-0.01098472899567438</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>-0.01035970002440481</v>
+        <v>-0.01024954748238667</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>-0.01008914283588641</v>
+        <v>-0.009959509107486763</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>-0.009194092896023985</v>
+        <v>-0.009154174589952973</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>-0.008264329379268881</v>
+        <v>-0.008352021000000775</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>-0.007475689041351818</v>
+        <v>-0.007558514109154732</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>-0.006748513062857796</v>
+        <v>-0.006811598606495624</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>-0.007275784339895446</v>
+        <v>-0.007404375428072892</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>-0.008934681847056815</v>
+        <v>-0.008971967739686722</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>-0.008651160490612212</v>
+        <v>-0.008670805032339841</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>-0.007803597002247953</v>
+        <v>-0.007901630242780885</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>-0.007419346480160652</v>
+        <v>-0.00760813505706378</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>-0.006680422531014892</v>
+        <v>-0.006970604341948567</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>-0.006765778133704573</v>
+        <v>-0.007120362756522856</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>-0.007272348869575744</v>
+        <v>-0.007621210899637788</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>-0.006899622727754197</v>
+        <v>-0.007222935379125228</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>-0.0072522207890138</v>
+        <v>-0.007543314164658027</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>-0.007608022326526001</v>
+        <v>-0.007931724597876564</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>-0.008653746329301023</v>
+        <v>-0.009057367589610725</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>-0.007875597010828959</v>
+        <v>-0.008290511323739699</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>-0.007719701897441359</v>
+        <v>-0.008422915437272749</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>-0.007948160213162475</v>
+        <v>-0.008291615604455375</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>-0.007711588331955364</v>
+        <v>-0.00790377282036385</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>-0.007005394563222321</v>
+        <v>-0.007159942110723825</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>-0.005742519376686639</v>
+        <v>-0.00643463039695786</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>-0.005532360630316048</v>
+        <v>-0.006138519817603802</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>-0.00559670833003946</v>
+        <v>-0.006304915381982315</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>-0.005033596156769874</v>
+        <v>-0.005632378049855565</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>-0.004932791453469418</v>
+        <v>-0.005520900459169561</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>-0.00639475230208</v>
+        <v>-0.006398324731582902</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>-0.006296099064641616</v>
+        <v>-0.006257735010516442</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>-0.006125746972862782</v>
+        <v>-0.006232940011743849</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>-0.006526531902983618</v>
+        <v>-0.006452944611866665</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>-0.006621576025876257</v>
+        <v>-0.006600202326022349</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>-0.006145823875271461</v>
+        <v>-0.006011091310264464</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>-0.006287678880363875</v>
+        <v>-0.006137119652903898</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>-0.006001028917668732</v>
+        <v>-0.005716256490618429</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>-0.006558239271559174</v>
+        <v>-0.006368492499192707</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>-0.006525464240306359</v>
+        <v>-0.006317628294337979</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>-0.006240198568006733</v>
+        <v>-0.006508885354003445</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>-0.005554722061658133</v>
+        <v>-0.005868285014185939</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>-0.005612242805497096</v>
+        <v>-0.005885536466900629</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>-0.005857266925053478</v>
+        <v>-0.006176394005163558</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>-0.006022904889262304</v>
+        <v>-0.006346719280251056</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>-0.00539444523158661</v>
+        <v>-0.00555341403051163</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>-0.005425828876980207</v>
+        <v>-0.005627972026023676</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>-0.00551245130434222</v>
+        <v>-0.00559912461173172</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>-0.005117042510435629</v>
+        <v>-0.004995839718077687</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>-0.005444862828285079</v>
+        <v>-0.005512226978975017</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>-0.005338833281478277</v>
+        <v>-0.005203547649834231</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>-0.005400829895818401</v>
+        <v>-0.005622642098669715</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>-0.005774645279358498</v>
+        <v>-0.005908930099618092</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>-0.005441493441552897</v>
+        <v>-0.005593090620454213</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>-0.005977051726365807</v>
+        <v>-0.006039291226523675</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>-0.00639852497477566</v>
+        <v>-0.006739068802418148</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>-0.008135534829495196</v>
+        <v>-0.008329790588126648</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>-0.008458383740186048</v>
+        <v>-0.008504327340770564</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>-0.007877187847459711</v>
+        <v>-0.00808639594983634</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>-0.007585264766855974</v>
+        <v>-0.007773063374044046</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>-0.007979359507108612</v>
+        <v>-0.008171791743902803</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>-0.007804811375511727</v>
+        <v>-0.008001108788802785</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>-0.007373840597731299</v>
+        <v>-0.007551191279977529</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>-0.006716340692739879</v>
+        <v>-0.006854702540709296</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>-0.007186293748024842</v>
+        <v>-0.007382040837437621</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>-0.006977759305428174</v>
+        <v>-0.00725845383345025</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>-0.007569172761413176</v>
+        <v>-0.007867739619560525</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>-0.008779876485749748</v>
+        <v>-0.009028780855415955</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>-0.01022453141788466</v>
+        <v>-0.00997440960183044</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>-0.009489855539081571</v>
+        <v>-0.009238838406548976</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>-0.009295472725457039</v>
+        <v>-0.009052278229231933</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>-0.009023818362086567</v>
+        <v>-0.008784150390272841</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>-0.008481580149058003</v>
+        <v>-0.00836044471148065</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>-0.00887660289226402</v>
+        <v>-0.008757799793448571</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>-0.009197245126117007</v>
+        <v>-0.009059956439520792</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>-0.00922107760334726</v>
+        <v>-0.009093174009695344</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>-0.008513501818955781</v>
+        <v>-0.008507532857223124</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>-0.00762040047623126</v>
+        <v>-0.007668205432924028</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>-0.007097987974649852</v>
+        <v>-0.007149957268122985</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>-0.006686226037301495</v>
+        <v>-0.006751943272532877</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>-0.007175933029185429</v>
+        <v>-0.00719875353621499</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>-0.006816279283433552</v>
+        <v>-0.007057084516783504</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>-0.006930533737234954</v>
+        <v>-0.007343653159677798</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>-0.006711450153083253</v>
+        <v>-0.007115764351898621</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>-0.006175474853152506</v>
+        <v>-0.006639449616824419</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>-0.007309213945177966</v>
+        <v>-0.007727921703136542</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>-0.007416872138985234</v>
+        <v>-0.007381581732204249</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>-0.007046326739544157</v>
+        <v>-0.00699907255298951</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>-0.007569531744841427</v>
+        <v>-0.007289946635477362</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>-0.008284528249708677</v>
+        <v>-0.008111809587899718</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>-0.007525759631376171</v>
+        <v>-0.007472136937343304</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>-0.008705288910191327</v>
+        <v>-0.008800079986190888</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>-0.008210256744618547</v>
+        <v>-0.008327742665119884</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>-0.008851452562728556</v>
+        <v>-0.009141277422758443</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>-0.008432761814581025</v>
+        <v>-0.008642255527023648</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>-0.007947142222141658</v>
+        <v>-0.008100036399129712</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>-0.00763297915192572</v>
+        <v>-0.00770128170839145</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>-0.007652679267344171</v>
+        <v>-0.007834573867023761</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>-0.007999164600307184</v>
+        <v>-0.008218381616622663</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>-0.008072656786602107</v>
+        <v>-0.00832336568905835</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>-0.008388121566220813</v>
+        <v>-0.008707111109419049</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>-0.007872851427013489</v>
+        <v>-0.008165201029079831</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>-0.008135272361851541</v>
+        <v>-0.008505929400458388</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>-0.007941306574193749</v>
+        <v>-0.008239841895954626</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>-0.008988403496463319</v>
+        <v>-0.009396292172861212</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>-0.009054495960212544</v>
+        <v>-0.009441233437814351</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>-0.008561745322582907</v>
+        <v>-0.009052901251682613</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>-0.007950953643282611</v>
+        <v>-0.008134688648593118</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>-0.008004841760165275</v>
+        <v>-0.008216583657049298</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>-0.008185709941296368</v>
+        <v>-0.008391221614418794</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>-0.007482619700927892</v>
+        <v>-0.007691961402632713</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>-0.007366236348542672</v>
+        <v>-0.007609635872113765</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>-0.007136766485026013</v>
+        <v>-0.007464784166843878</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>-0.006640851385444724</v>
+        <v>-0.006811483765450732</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>-0.006149741078991611</v>
+        <v>-0.006268268377325028</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>-0.006052916403179908</v>
+        <v>-0.006162377299978853</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>-0.006151345388919298</v>
+        <v>-0.006318809991150293</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>-0.005770159239300426</v>
+        <v>-0.005900134667402742</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>-0.005591366230408023</v>
+        <v>-0.005676162269748603</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>-0.005874222334278727</v>
+        <v>-0.005959761705354887</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>-0.005576677823452379</v>
+        <v>-0.005623502374647055</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>-0.006347797383207203</v>
+        <v>-0.006767409269135758</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>-0.005952562827528943</v>
+        <v>-0.006327623513373511</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>-0.005700005398635596</v>
+        <v>-0.006071201334360159</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>-0.005744577816998134</v>
+        <v>-0.006142842816735684</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>-0.005197909454052525</v>
+        <v>-0.005689774270734932</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>-0.005134210670490445</v>
+        <v>-0.005691453314355266</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>-0.005306398914224516</v>
+        <v>-0.005477621494659029</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>-0.006752591057286987</v>
+        <v>-0.007115679075033824</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>-0.008850621982016636</v>
+        <v>-0.009332565400231609</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>-0.008110691793966647</v>
+        <v>-0.008533834495937443</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>-0.007435913116404005</v>
+        <v>-0.007633669535206913</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>-0.007084433952827836</v>
+        <v>-0.007296134129799105</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>-0.00872631906358402</v>
+        <v>-0.008564719147989581</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>-0.009280087780018246</v>
+        <v>-0.008813843215115339</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>-0.008991335901838683</v>
+        <v>-0.008850134922522394</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>-0.00948002602199173</v>
+        <v>-0.009147963853643278</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>-0.009055557144805578</v>
+        <v>-0.009124247831937406</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>-0.009104085017804979</v>
+        <v>-0.009157410622536489</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>-0.01302828893141769</v>
+        <v>-0.01235208548296006</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>-0.01260375134098505</v>
+        <v>-0.01186113115528266</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>-0.01214861568970385</v>
+        <v>-0.01152062510072001</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>-0.01365627606049925</v>
+        <v>-0.01269267927942246</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>-0.01203640967586326</v>
+        <v>-0.01230316793864062</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>-0.01167467414562485</v>
+        <v>-0.01206844180896673</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>-0.01475329526916536</v>
+        <v>-0.01401569400137771</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>-0.01377229019503186</v>
+        <v>-0.01326899642530829</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>-0.01485775286571384</v>
+        <v>-0.01432878289922382</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>-0.01400094281601131</v>
+        <v>-0.01356304917479424</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>-0.01232274642181491</v>
+        <v>-0.01206764715942969</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>-0.01187042229064264</v>
+        <v>-0.01093029827167546</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>-0.01395466854110905</v>
+        <v>-0.01267837530906013</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>-0.01435921402764041</v>
+        <v>-0.01312763993268185</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>-0.01355470527290487</v>
+        <v>-0.01265699518486277</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>-0.01336522038018857</v>
+        <v>-0.01267108490930474</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>-0.01278312418724566</v>
+        <v>-0.01203678260196494</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>-0.01274157760887288</v>
+        <v>-0.01200115306567878</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>-0.01193164099271376</v>
+        <v>-0.01143223444397867</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>-0.012708958955433</v>
+        <v>-0.01226998783236697</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>-0.01467413943788858</v>
+        <v>-0.01467836095394151</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>-0.01392514010970985</v>
+        <v>-0.01367172793317698</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>-0.01435618339058267</v>
+        <v>-0.01402910119381942</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>-0.01385550060639022</v>
+        <v>-0.01342989498651474</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>-0.0142286215760689</v>
+        <v>-0.01387804842181883</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>-0.01484641398766001</v>
+        <v>-0.0143648097495664</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>-0.01394676891570392</v>
+        <v>-0.01340556453210774</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>-0.0124078705226248</v>
+        <v>-0.01204995301833527</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>-0.0129290585990192</v>
+        <v>-0.01287250041539079</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>-0.01478283270096875</v>
+        <v>-0.01492688446212198</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>-0.01465237340524835</v>
+        <v>-0.01420879664180524</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>-0.01491344703408857</v>
+        <v>-0.01450243699318823</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>-0.01366883811973</v>
+        <v>-0.01333191291217069</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>-0.01398052162574471</v>
+        <v>-0.0136335077365437</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>-0.01382421355790309</v>
+        <v>-0.0135118421202342</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>-0.01306340463212362</v>
+        <v>-0.01294538229925117</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>-0.01225379429466465</v>
+        <v>-0.01197390480046412</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>-0.01366526680143094</v>
+        <v>-0.01370115641240134</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>-0.01469603020271281</v>
+        <v>-0.01458130483624194</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>-0.01424278835037857</v>
+        <v>-0.01373343773621635</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>-0.01474559705261986</v>
+        <v>-0.01414196200311149</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>-0.01354919054479729</v>
+        <v>-0.01290764576845822</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>-0.01466826605284592</v>
+        <v>-0.01407874051751925</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>-0.01641945038668001</v>
+        <v>-0.01525859169556472</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>-0.02011417292230197</v>
+        <v>-0.02021346604501615</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>-0.02043910384964433</v>
+        <v>-0.02066639893884413</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>-0.03429665838794609</v>
+        <v>-0.03090748537656302</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>-0.03168898156601187</v>
+        <v>-0.02938709353255358</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>-0.02741379505151331</v>
+        <v>-0.0272495491248465</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>-0.02610290630681701</v>
+        <v>-0.0263204189811372</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>-0.02397451437527817</v>
+        <v>-0.02457068356008885</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>-0.02171739502845145</v>
+        <v>-0.02279149649091052</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>-0.02191548110230182</v>
+        <v>-0.02318601461220637</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>-0.02019567354072393</v>
+        <v>-0.02203609395830048</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>-0.01971846349564692</v>
+        <v>-0.0214356692291569</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>-0.01803701809483076</v>
+        <v>-0.0200778470214963</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>-0.01683756043831697</v>
+        <v>-0.01717620267773163</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>-0.01538482274484587</v>
+        <v>-0.01613532402363736</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>-0.01388285284938502</v>
+        <v>-0.0142364256262226</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>-0.01248748473383485</v>
+        <v>-0.01304306373411333</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>-0.01090087647926054</v>
+        <v>-0.01103245815315346</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>-0.01187437258476735</v>
+        <v>-0.01032543584037629</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>-0.0105835370673298</v>
+        <v>-0.009004663949645558</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>-0.01190348558522763</v>
+        <v>-0.01207906172916326</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>-0.01337606151852902</v>
+        <v>-0.01323607340523488</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>-0.01225638637761657</v>
+        <v>-0.01216910876064627</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>-0.01208023670574229</v>
+        <v>-0.01205023749534925</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>-0.01068677159473906</v>
+        <v>-0.01080943770428807</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>-0.0119196575022399</v>
+        <v>-0.01196108158667394</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>-0.01190308519977722</v>
+        <v>-0.01197587032744857</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>-0.0112566542247038</v>
+        <v>-0.01158007313331928</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>-0.01189194778150655</v>
+        <v>-0.01207655868710313</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>-0.01122367966632916</v>
+        <v>-0.01144949059088907</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>-0.01126913274389119</v>
+        <v>-0.01131031454616984</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>-0.009919415685290612</v>
+        <v>-0.01023777007662581</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>-0.008822044801103235</v>
+        <v>-0.009264731505379764</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>-0.008986643577878865</v>
+        <v>-0.009251479986043899</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>-0.008386274158243185</v>
+        <v>-0.008665634800963811</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>-0.008969366430602463</v>
+        <v>-0.009036414369321401</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>-0.009810788321654329</v>
+        <v>-0.009666444132608525</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>-0.0101990488969021</v>
+        <v>-0.0101100935423583</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>-0.009285146334250793</v>
+        <v>-0.009330754868602739</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>-0.008404206675451716</v>
+        <v>-0.008501039684801136</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>-0.007553398985168941</v>
+        <v>-0.007787343525251468</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>-0.007573603885322433</v>
+        <v>-0.007529302120949176</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>-0.007212812736297202</v>
+        <v>-0.007506250801147741</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>-0.006411684333184213</v>
+        <v>-0.006809063056293254</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>-0.006479952863316044</v>
+        <v>-0.007003772907831149</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>-0.007607781628217185</v>
+        <v>-0.007710247129362324</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>-0.007328225979575808</v>
+        <v>-0.007359214019397826</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>-0.006597372764123259</v>
+        <v>-0.00683724141002065</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>-0.005739779439083282</v>
+        <v>-0.006050022503150732</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>-0.005135451581436093</v>
+        <v>-0.00563899963000399</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>-0.00546123539355867</v>
+        <v>-0.006018905651175905</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>-0.007155070668016596</v>
+        <v>-0.007280309851129197</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>-0.007586820940399623</v>
+        <v>-0.007536610659101632</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>-0.006940922299230688</v>
+        <v>-0.006968299753936006</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>-0.006835631470825909</v>
+        <v>-0.006938538068569615</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>-0.00609102961985722</v>
+        <v>-0.006181838161651405</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>-0.005888835548630443</v>
+        <v>-0.006036076537791161</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>-0.005912708401203035</v>
+        <v>-0.005971411177080671</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>-0.005871897645909698</v>
+        <v>-0.00602150647719584</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>-0.006763415158074848</v>
+        <v>-0.006795145291259558</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>-0.007941872395993619</v>
+        <v>-0.007764951414579924</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>-0.007117440165194785</v>
+        <v>-0.007108866694304722</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>-0.007640665799241153</v>
+        <v>-0.007521213960287089</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>-0.007298398098446215</v>
+        <v>-0.007373424885215925</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>-0.007357042231690823</v>
+        <v>-0.0075164236882731</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>-0.006893654533107951</v>
+        <v>-0.007065526200420514</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>-0.006490529565202534</v>
+        <v>-0.006618236064647918</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>-0.005743008865978143</v>
+        <v>-0.006051154541385536</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>-0.00510268895736499</v>
+        <v>-0.005441843702177832</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>-0.005905968996485917</v>
+        <v>-0.006258068362269218</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>-0.006691113133093406</v>
+        <v>-0.006791112401735114</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>-0.006329191298522056</v>
+        <v>-0.00653819326585168</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>-0.006159487354740532</v>
+        <v>-0.006271261875000479</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>-0.007504441520344754</v>
+        <v>-0.007448966386979413</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>-0.007233359644043322</v>
+        <v>-0.007176561497481122</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>-0.00714645103650488</v>
+        <v>-0.006992268982829824</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>-0.006882268128144772</v>
+        <v>-0.00647490624145297</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>-0.008089684267958837</v>
+        <v>-0.007735674513821275</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>-0.007812020582431211</v>
+        <v>-0.007477543077293723</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>-0.007177676317735923</v>
+        <v>-0.006799871916297999</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>-0.007358119528956777</v>
+        <v>-0.007208720885386061</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>-0.007677272913851878</v>
+        <v>-0.007559338372782648</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>-0.007336880096217816</v>
+        <v>-0.007220159895610983</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>-0.007723201904200861</v>
+        <v>-0.007730672679042649</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>-0.008030312297212579</v>
+        <v>-0.007779716633844746</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>-0.008053983910276971</v>
+        <v>-0.007843197591070442</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>-0.007557873440672255</v>
+        <v>-0.007465372523350218</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>-0.007691551031272492</v>
+        <v>-0.007566457633149426</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>-0.008629122372770479</v>
+        <v>-0.008507919125316213</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>-0.008385714729622025</v>
+        <v>-0.0081231011228806</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>-0.007734320421190884</v>
+        <v>-0.007601544349455256</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>-0.008194063991608854</v>
+        <v>-0.00779432396748302</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>-0.007557897006887787</v>
+        <v>-0.007208990941364894</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>-0.007269091063901586</v>
+        <v>-0.006754426986573953</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>-0.006806794292132806</v>
+        <v>-0.006541164804769652</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>-0.006339519224846333</v>
+        <v>-0.006058128741087156</v>
       </c>
     </row>
     <row r="349">
       <c r="A349">
-        <v>-0.005910224629682362</v>
+        <v>-0.006074433125142105</v>
       </c>
     </row>
     <row r="350">
       <c r="A350">
-        <v>-0.006041974206847947</v>
+        <v>-0.005941563766147695</v>
       </c>
     </row>
     <row r="351">
       <c r="A351">
-        <v>-0.005839676626840526</v>
+        <v>-0.00593715080389404</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>-0.005386602508932608</v>
+        <v>-0.005443932340599761</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>-0.005279570962561634</v>
+        <v>-0.005339665320198246</v>
       </c>
     </row>
     <row r="354">
       <c r="A354">
-        <v>-0.006548271961403836</v>
+        <v>-0.00683749061981794</v>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>-0.008429791018485027</v>
+        <v>-0.009133087045072937</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>-0.007761167656805373</v>
+        <v>-0.008316292303197671</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>-0.009193625438708865</v>
+        <v>-0.009034125790281266</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>-0.00814363973230223</v>
+        <v>-0.008315673029782972</v>
       </c>
     </row>
     <row r="359">
       <c r="A359">
-        <v>-0.009310791378081362</v>
+        <v>-0.009149857899386677</v>
       </c>
     </row>
     <row r="360">
       <c r="A360">
-        <v>-0.007945853758476956</v>
+        <v>-0.008068573478221992</v>
       </c>
     </row>
     <row r="361">
       <c r="A361">
-        <v>-0.007440315198666313</v>
+        <v>-0.007521346279835531</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>-0.008060161154636959</v>
+        <v>-0.008255765249566137</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>-0.009574980087798316</v>
+        <v>-0.009244973013947704</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>-0.009623116396440109</v>
+        <v>-0.009359947071008751</v>
       </c>
     </row>
     <row r="365">
       <c r="A365">
-        <v>-0.009361363976641574</v>
+        <v>-0.009148408041816334</v>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>-0.008514416530678604</v>
+        <v>-0.0082768004006104</v>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>-0.009000285632512607</v>
+        <v>-0.008752297889103977</v>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>-0.0090094344064095</v>
+        <v>-0.008784430618758374</v>
       </c>
     </row>
     <row r="369">
       <c r="A369">
-        <v>-0.009367271629984943</v>
+        <v>-0.009132552283800171</v>
       </c>
     </row>
     <row r="370">
       <c r="A370">
-        <v>-0.01018383845677373</v>
+        <v>-0.009914876157901764</v>
       </c>
     </row>
     <row r="371">
       <c r="A371">
-        <v>-0.009666841379749061</v>
+        <v>-0.009450039518774621</v>
       </c>
     </row>
     <row r="372">
       <c r="A372">
-        <v>-0.01054199726366985</v>
+        <v>-0.01019962468697104</v>
       </c>
     </row>
     <row r="373">
       <c r="A373">
-        <v>-0.01149513363418699</v>
+        <v>-0.01098708077837564</v>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>-0.01046272934062611</v>
+        <v>-0.01009601824696784</v>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>-0.01170924460513086</v>
+        <v>-0.01129005710885782</v>
       </c>
     </row>
     <row r="376">
       <c r="A376">
-        <v>-0.01060006147506168</v>
+        <v>-0.01035163238038511</v>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>-0.009367394063526406</v>
+        <v>-0.009273745999106629</v>
       </c>
     </row>
     <row r="378">
       <c r="A378">
-        <v>-0.009999447935563694</v>
+        <v>-0.009806041394312111</v>
       </c>
     </row>
     <row r="379">
       <c r="A379">
-        <v>-0.009899590526815433</v>
+        <v>-0.009697246023505492</v>
       </c>
     </row>
     <row r="380">
       <c r="A380">
-        <v>-0.009895959144466296</v>
+        <v>-0.009887204674991389</v>
       </c>
     </row>
     <row r="381">
       <c r="A381">
-        <v>-0.01060377781108584</v>
+        <v>-0.01051416967319497</v>
       </c>
     </row>
     <row r="382">
       <c r="A382">
-        <v>-0.01095851684068204</v>
+        <v>-0.01082496050778378</v>
       </c>
     </row>
     <row r="383">
       <c r="A383">
-        <v>-0.01053671040551185</v>
+        <v>-0.01052447552003846</v>
       </c>
     </row>
     <row r="384">
       <c r="A384">
-        <v>-0.009463723355384713</v>
+        <v>-0.009590611545725214</v>
       </c>
     </row>
     <row r="385">
       <c r="A385">
-        <v>-0.008613896912492359</v>
+        <v>-0.008887067137007503</v>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>-0.009213871348206049</v>
+        <v>-0.009460211324635565</v>
       </c>
     </row>
     <row r="387">
       <c r="A387">
-        <v>-0.008913857478744305</v>
+        <v>-0.009159827153631272</v>
       </c>
     </row>
     <row r="388">
       <c r="A388">
-        <v>-0.008522175981993424</v>
+        <v>-0.008761592728366761</v>
       </c>
     </row>
     <row r="389">
       <c r="A389">
-        <v>-0.008045383098158269</v>
+        <v>-0.0082850421537574</v>
       </c>
     </row>
     <row r="390">
       <c r="A390">
-        <v>-0.007902712078016648</v>
+        <v>-0.008046404912831024</v>
       </c>
     </row>
     <row r="391">
       <c r="A391">
-        <v>-0.007295898929977917</v>
+        <v>-0.007456567865622465</v>
       </c>
     </row>
     <row r="392">
       <c r="A392">
-        <v>-0.006579396841153759</v>
+        <v>-0.006781326802413831</v>
       </c>
     </row>
     <row r="393">
       <c r="A393">
-        <v>-0.00606334889154335</v>
+        <v>-0.006276853803286274</v>
       </c>
     </row>
     <row r="394">
       <c r="A394">
-        <v>-0.006143472457562404</v>
+        <v>-0.006203403377531308</v>
       </c>
     </row>
     <row r="395">
       <c r="A395">
-        <v>-0.005516448505887472</v>
+        <v>-0.005735025443688457</v>
       </c>
     </row>
     <row r="396">
       <c r="A396">
-        <v>-0.0055305204899804</v>
+        <v>-0.005759686385756146</v>
       </c>
     </row>
     <row r="397">
       <c r="A397">
-        <v>-0.005237080592831641</v>
+        <v>-0.005503652869472893</v>
       </c>
     </row>
     <row r="398">
       <c r="A398">
-        <v>-0.007100055357472948</v>
+        <v>-0.007093712148859557</v>
       </c>
     </row>
     <row r="399">
       <c r="A399">
-        <v>-0.008724962643712071</v>
+        <v>-0.008552167190588761</v>
       </c>
     </row>
     <row r="400">
       <c r="A400">
-        <v>-0.008436608337045811</v>
+        <v>-0.008208518259753149</v>
       </c>
     </row>
     <row r="401">
       <c r="A401">
-        <v>-0.007742644484186377</v>
+        <v>-0.007693885142707032</v>
       </c>
     </row>
     <row r="402">
       <c r="A402">
-        <v>-0.007195328380759349</v>
+        <v>-0.007232997985960137</v>
       </c>
     </row>
     <row r="403">
       <c r="A403">
-        <v>-0.007117862286197554</v>
+        <v>-0.007120765919265269</v>
       </c>
     </row>
     <row r="404">
       <c r="A404">
-        <v>-0.007360304811600051</v>
+        <v>-0.007457279764561755</v>
       </c>
     </row>
     <row r="405">
       <c r="A405">
-        <v>-0.008125064573075149</v>
+        <v>-0.008156779581017185</v>
       </c>
     </row>
     <row r="406">
       <c r="A406">
-        <v>-0.008726982586395947</v>
+        <v>-0.008712829635488112</v>
       </c>
     </row>
     <row r="407">
       <c r="A407">
-        <v>-0.007955037828770651</v>
+        <v>-0.007891119962543144</v>
       </c>
     </row>
     <row r="408">
       <c r="A408">
-        <v>-0.009492650647032107</v>
+        <v>-0.009343598528376273</v>
       </c>
     </row>
     <row r="409">
       <c r="A409">
-        <v>-0.009782735208517846</v>
+        <v>-0.01001470761661992</v>
       </c>
     </row>
     <row r="410">
       <c r="A410">
-        <v>-0.01062550878472175</v>
+        <v>-0.0107224147324462</v>
       </c>
     </row>
     <row r="411">
       <c r="A411">
-        <v>-0.010139974804453</v>
+        <v>-0.01024080620197619</v>
       </c>
     </row>
     <row r="412">
       <c r="A412">
-        <v>-0.01116682970346137</v>
+        <v>-0.01111147991219653</v>
       </c>
     </row>
     <row r="413">
       <c r="A413">
-        <v>-0.01065625256449002</v>
+        <v>-0.01063757095376762</v>
       </c>
     </row>
     <row r="414">
       <c r="A414">
-        <v>-0.01109940878806069</v>
+        <v>-0.01099555527745097</v>
       </c>
     </row>
     <row r="415">
       <c r="A415">
-        <v>-0.01249571582931126</v>
+        <v>-0.01297791870739004</v>
       </c>
     </row>
     <row r="416">
       <c r="A416">
-        <v>-0.01176020832064195</v>
+        <v>-0.01243724244874783</v>
       </c>
     </row>
     <row r="417">
       <c r="A417">
-        <v>-0.01137501104712654</v>
+        <v>-0.01190400528807677</v>
       </c>
     </row>
     <row r="418">
       <c r="A418">
-        <v>-0.01081108740997289</v>
+        <v>-0.01125697270074085</v>
       </c>
     </row>
     <row r="419">
       <c r="A419">
-        <v>-0.01165877861305293</v>
+        <v>-0.01213067493464359</v>
       </c>
     </row>
     <row r="420">
       <c r="A420">
-        <v>-0.01132610903326016</v>
+        <v>-0.01163790907736049</v>
       </c>
     </row>
     <row r="421">
       <c r="A421">
-        <v>-0.01050682807795382</v>
+        <v>-0.0107152067451007</v>
       </c>
     </row>
     <row r="422">
       <c r="A422">
-        <v>-0.01125551837006488</v>
+        <v>-0.01147936735695991</v>
       </c>
     </row>
     <row r="423">
       <c r="A423">
-        <v>-0.01089894052073758</v>
+        <v>-0.01101583354192202</v>
       </c>
     </row>
     <row r="424">
       <c r="A424">
-        <v>-0.01049268375875526</v>
+        <v>-0.0107312295481308</v>
       </c>
     </row>
     <row r="425">
       <c r="A425">
-        <v>-0.009787054193914112</v>
+        <v>-0.009910333648560575</v>
       </c>
     </row>
     <row r="426">
       <c r="A426">
-        <v>-0.009934919213331117</v>
+        <v>-0.01005317112990295</v>
       </c>
     </row>
     <row r="427">
       <c r="A427">
-        <v>-0.009525489419543079</v>
+        <v>-0.009690109958108826</v>
       </c>
     </row>
     <row r="428">
       <c r="A428">
-        <v>-0.009845893226544687</v>
+        <v>-0.009912239409617475</v>
       </c>
     </row>
     <row r="429">
       <c r="A429">
-        <v>-0.009222756701520854</v>
+        <v>-0.009303636958559418</v>
       </c>
     </row>
     <row r="430">
       <c r="A430">
-        <v>-0.008817555654504733</v>
+        <v>-0.008904760445138181</v>
       </c>
     </row>
     <row r="431">
       <c r="A431">
-        <v>-0.009279944388442991</v>
+        <v>-0.009292359452971612</v>
       </c>
     </row>
     <row r="432">
       <c r="A432">
-        <v>-0.008808862239329401</v>
+        <v>-0.008879997623780856</v>
       </c>
     </row>
     <row r="433">
       <c r="A433">
-        <v>-0.009072221380822166</v>
+        <v>-0.009098668813948784</v>
       </c>
     </row>
     <row r="434">
       <c r="A434">
-        <v>-0.01031277236159118</v>
+        <v>-0.01060476033490971</v>
       </c>
     </row>
     <row r="435">
       <c r="A435">
-        <v>-0.01016112616161331</v>
+        <v>-0.01040337672053723</v>
       </c>
     </row>
     <row r="436">
       <c r="A436">
-        <v>-0.01052875752886891</v>
+        <v>-0.01077222345519322</v>
       </c>
     </row>
     <row r="437">
       <c r="A437">
-        <v>-0.01012614675700397</v>
+        <v>-0.01038412621473593</v>
       </c>
     </row>
     <row r="438">
       <c r="A438">
-        <v>-0.01004711547982456</v>
+        <v>-0.01024382339676191</v>
       </c>
     </row>
     <row r="439">
       <c r="A439">
-        <v>-0.009465892191308379</v>
+        <v>-0.0096197468223275</v>
       </c>
     </row>
     <row r="440">
       <c r="A440">
-        <v>-0.0104115937599254</v>
+        <v>-0.01073001627298692</v>
       </c>
     </row>
     <row r="441">
       <c r="A441">
-        <v>-0.0105660018081642</v>
+        <v>-0.01097602700043461</v>
       </c>
     </row>
     <row r="442">
       <c r="A442">
-        <v>-0.00985565593397025</v>
+        <v>-0.0102172307293306</v>
       </c>
     </row>
     <row r="443">
       <c r="A443">
-        <v>-0.01029345916903918</v>
+        <v>-0.01048028098272169</v>
       </c>
     </row>
     <row r="444">
       <c r="A444">
-        <v>-0.01055031532569371</v>
+        <v>-0.01075662147197674</v>
       </c>
     </row>
     <row r="445">
       <c r="A445">
-        <v>-0.01229957233760655</v>
+        <v>-0.01229797279414948</v>
       </c>
     </row>
     <row r="446">
       <c r="A446">
-        <v>-0.01225718875500513</v>
+        <v>-0.01206987737260355</v>
       </c>
     </row>
     <row r="447">
       <c r="A447">
-        <v>-0.01127063955806917</v>
+        <v>-0.01125903747472922</v>
       </c>
     </row>
     <row r="448">
       <c r="A448">
-        <v>-0.01124429036973452</v>
+        <v>-0.0112351075532495</v>
       </c>
     </row>
     <row r="449">
       <c r="A449">
-        <v>-0.01085018663058501</v>
+        <v>-0.01088840113367131</v>
       </c>
     </row>
     <row r="450">
       <c r="A450">
-        <v>-0.01054067101551666</v>
+        <v>-0.01053500185732873</v>
       </c>
     </row>
     <row r="451">
       <c r="A451">
-        <v>-0.009677680599292112</v>
+        <v>-0.009832748710964899</v>
       </c>
     </row>
     <row r="452">
       <c r="A452">
-        <v>-0.009682576592052872</v>
+        <v>-0.009729603349858741</v>
       </c>
     </row>
     <row r="453">
       <c r="A453">
-        <v>-0.009295833958629474</v>
+        <v>-0.009464270960530879</v>
       </c>
     </row>
   </sheetData>
